--- a/inst/extdata/annual.xlsx
+++ b/inst/extdata/annual.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,30 +365,25 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Organization</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Publish</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Write</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Research</t>
         </is>
@@ -399,22 +394,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -422,10 +414,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -434,10 +426,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -445,22 +434,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +454,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -477,13 +463,10 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -494,18 +477,15 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
         <v>5</v>
       </c>
     </row>
@@ -514,22 +494,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -537,22 +514,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -560,22 +534,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -583,22 +554,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -606,22 +574,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -629,22 +594,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12">
         <v>5</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -652,22 +614,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13">
         <v>4</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -678,18 +637,15 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
         <v>3</v>
       </c>
     </row>
@@ -698,22 +654,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -721,22 +674,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -744,22 +694,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>5</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -767,22 +714,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>5</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -790,22 +734,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -816,19 +757,16 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -836,21 +774,18 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21">
         <v>3</v>
       </c>
     </row>
